--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2414E52-C5B3-4088-B497-643D4C3FE123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF34124-3DE9-4C9B-9258-D96433D33F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -89,6 +90,18 @@
   </si>
   <si>
     <t>NGC-3477/T1844</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2646</t>
+  </si>
+  <si>
+    <t>PR1DSCH</t>
+  </si>
+  <si>
+    <t>PR8ASCH</t>
   </si>
 </sst>
 </file>
@@ -716,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA1A65E-B504-4BED-88F2-BADF603DFA3B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,4 +825,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7321559A-52E0-436A-8362-58ED64B57389}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF34124-3DE9-4C9B-9258-D96433D33F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0802665F-DD7C-4C92-9D43-BADE0721D6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>PR8ASCH</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T3493</t>
   </si>
 </sst>
 </file>
@@ -526,7 +533,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7321559A-52E0-436A-8362-58ED64B57389}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -937,4 +944,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8704E693-BB03-452C-BDA6-FDA245C46FFE}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0802665F-DD7C-4C92-9D43-BADE0721D6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C65DC9-8501-45D4-83FA-34EB1E8F4D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="12" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t>NGC-3479/T3493</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3174</t>
   </si>
 </sst>
 </file>
@@ -950,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8704E693-BB03-452C-BDA6-FDA245C46FFE}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,4 +1052,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A2D7C8-B96D-454D-BEEA-859F41EC0B82}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C65DC9-8501-45D4-83FA-34EB1E8F4D70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D5B72E-BEF6-41D4-947E-AA05F4501577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="12" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="13" r:id="rId6"/>
+    <sheet name="Italy" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -116,6 +117,12 @@
   </si>
   <si>
     <t>NGC-2930/T3174</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2237</t>
   </si>
 </sst>
 </file>
@@ -1058,6 +1065,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A2D7C8-B96D-454D-BEEA-859F41EC0B82}">
   <dimension ref="A1:D11"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC2552F-786D-46F0-B412-2CB7B3CB624D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1082,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1104,7 +1212,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D5B72E-BEF6-41D4-947E-AA05F4501577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F2AEB-6FC0-4ABC-8A68-02D22A744A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="12" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="13" r:id="rId6"/>
     <sheet name="Italy" sheetId="14" r:id="rId7"/>
+    <sheet name="Spain" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -123,6 +124,12 @@
   </si>
   <si>
     <t>NGC-3145/T2237</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2048</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC2552F-786D-46F0-B412-2CB7B3CB624D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,4 +1268,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15EDC89-47EC-424B-B3C4-E668C7BA8D93}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93F2AEB-6FC0-4ABC-8A68-02D22A744A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F23DC84-D2DD-449D-823B-95F5072B5C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="13" r:id="rId6"/>
     <sheet name="Italy" sheetId="14" r:id="rId7"/>
     <sheet name="Spain" sheetId="15" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -130,6 +131,12 @@
   </si>
   <si>
     <t>NGC-3103/T2048</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3307</t>
   </si>
 </sst>
 </file>
@@ -1274,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15EDC89-47EC-424B-B3C4-E668C7BA8D93}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1369,4 +1376,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D032CB-F54A-4C8E-9678-AF45180DAA1A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F23DC84-D2DD-449D-823B-95F5072B5C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD748B-27DB-4B3E-A14D-7580A57A8404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="14" r:id="rId7"/>
     <sheet name="Spain" sheetId="15" r:id="rId8"/>
     <sheet name="Turkey" sheetId="16" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>NGC-3191/T3307</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2477</t>
   </si>
 </sst>
 </file>
@@ -564,15 +571,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -580,7 +587,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -592,7 +599,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -602,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -614,36 +621,137 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6EC15-3C1E-4AB1-97C0-B8AB5A68B06E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -666,15 +774,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -682,7 +790,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -694,7 +802,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -704,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -716,36 +824,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -768,15 +876,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -784,7 +892,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -796,7 +904,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,7 +914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,36 +926,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -870,15 +978,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -886,7 +994,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,7 +1006,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -908,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -920,46 +1028,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -982,14 +1090,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -997,7 +1105,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1117,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,36 +1139,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1083,14 +1191,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1206,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1110,7 +1218,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1132,36 +1240,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1184,14 +1292,14 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1199,7 +1307,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1319,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1233,36 +1341,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1285,14 +1393,14 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1408,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1312,7 +1420,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1334,36 +1442,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1382,18 +1490,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D032CB-F54A-4C8E-9678-AF45180DAA1A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1401,7 +1509,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1521,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1435,36 +1543,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDD748B-27DB-4B3E-A14D-7580A57A8404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFB301-652F-4DDC-AD33-14CF13577B5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="15" r:id="rId8"/>
     <sheet name="Turkey" sheetId="16" r:id="rId9"/>
     <sheet name="Croatia" sheetId="17" r:id="rId10"/>
+    <sheet name="Greece" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>NGC-3139/T2477</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3202</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -571,15 +578,15 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -587,7 +594,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -599,7 +606,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,7 +616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,36 +628,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -669,18 +676,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF6EC15-3C1E-4AB1-97C0-B8AB5A68B06E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -688,7 +695,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -700,7 +707,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -722,36 +729,137 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890F4FE8-32EC-4279-BF67-848DED7C193D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -774,15 +882,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -790,7 +898,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -802,7 +910,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,36 +932,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -876,15 +984,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -892,7 +1000,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -904,7 +1012,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -914,7 +1022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,36 +1034,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -978,15 +1086,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -994,7 +1102,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1114,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,46 +1136,46 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1090,14 +1198,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1105,7 +1213,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1225,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1139,36 +1247,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1191,14 +1299,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1314,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1218,7 +1326,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1228,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1240,36 +1348,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1292,14 +1400,14 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1307,7 +1415,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1427,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1329,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1341,36 +1449,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1393,14 +1501,14 @@
       <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1516,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +1528,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1442,36 +1550,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1494,14 +1602,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1617,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1629,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1543,36 +1651,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFB301-652F-4DDC-AD33-14CF13577B5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1273BC8-5220-4090-8E08-092CD9A98857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="16" r:id="rId9"/>
     <sheet name="Croatia" sheetId="17" r:id="rId10"/>
     <sheet name="Greece" sheetId="18" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="19" r:id="rId12"/>
+    <sheet name="Austria" sheetId="20" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -151,6 +154,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2192</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2299</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2779</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -777,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890F4FE8-32EC-4279-BF67-848DED7C193D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -824,6 +845,309 @@
       </c>
       <c r="B4" t="s">
         <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0E2044-49DA-4C9E-8FD6-BDC4CE0171F8}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4EA83A-DBC8-40CA-9F67-FFA4F3CF31FD}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1673C47A-01E0-4B58-933E-93E27877EB37}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1273BC8-5220-4090-8E08-092CD9A98857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB78B476-D887-4267-9523-1B53FEF57D3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="19" r:id="rId12"/>
     <sheet name="Austria" sheetId="20" r:id="rId13"/>
     <sheet name="Denmark" sheetId="21" r:id="rId14"/>
+    <sheet name="Russia" sheetId="23" r:id="rId15"/>
+    <sheet name="Finland" sheetId="24" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="25" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -172,6 +175,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2907</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2884</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2976</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1673C47A-01E0-4B58-933E-93E27877EB37}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1155,6 +1176,309 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FA4F10-BDD9-4607-AB2E-56B9F53A6C54}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15AD465-B458-40A1-9DB2-F1BF4C63FBC4}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4485F58-0F8A-4F3F-8531-1670303CC2AF}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB78B476-D887-4267-9523-1B53FEF57D3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F68B2-BF7A-4277-BF29-D6199928E5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="23" r:id="rId15"/>
     <sheet name="Finland" sheetId="24" r:id="rId16"/>
     <sheet name="Hungary" sheetId="25" r:id="rId17"/>
+    <sheet name="Norway" sheetId="26" r:id="rId18"/>
+    <sheet name="Poland" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -193,6 +195,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3068</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/3034</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4485F58-0F8A-4F3F-8531-1670303CC2AF}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1479,6 +1493,208 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AED1050-A970-4DE5-836D-9E553CB9321F}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2789BA8B-78DF-4305-A5EF-BD92F123A416}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
+++ b/Test Data/Gallery_Ethernet_Repeaters_P_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60F68B2-BF7A-4277-BF29-D6199928E5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611E8A4B-8B27-4077-BEC6-8E9AD5783034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="25" r:id="rId17"/>
     <sheet name="Norway" sheetId="26" r:id="rId18"/>
     <sheet name="Poland" sheetId="27" r:id="rId19"/>
+    <sheet name="UK" sheetId="28" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -207,6 +208,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3362</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AED1050-A970-4DE5-836D-9E553CB9321F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -1840,6 +1847,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB8DC2F-6E6E-4130-84D0-6AA9B80FDC95}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA1A65E-B504-4BED-88F2-BADF603DFA3B}">
   <dimension ref="A1:D11"/>
